--- a/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B1FD47-6B9B-4809-9168-4DF141B8DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BB1F06-1A0B-42E4-B0B5-66D2295468D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A12C5276-EF97-44F8-909A-58199869177A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3EB77DB-8350-403D-A807-41F90DEA22AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>17,37%</t>
@@ -89,16 +89,16 @@
     <t>15,34%</t>
   </si>
   <si>
-    <t>19,7%</t>
+    <t>19,37%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>80,3%</t>
+    <t>80,63%</t>
   </si>
   <si>
     <t>84,66%</t>
@@ -125,10 +125,10 @@
     <t>86,42%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,790 +140,790 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>84,45%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD611B-11A9-4C08-BD5A-7F6C76CC7A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42EEBD-2600-4B08-9FD9-D8B9B8DD74FF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2002,7 +2002,7 @@
         <v>5981</v>
       </c>
       <c r="N14" s="7">
-        <v>6117908</v>
+        <v>6117909</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2053,7 +2053,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BB01D-00B1-4A36-A302-90A21181631E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8427A-E855-46A2-856C-EACFB6189F27}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2553,10 +2553,10 @@
         <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2571,13 @@
         <v>457842</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2586,13 +2586,13 @@
         <v>431027</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -2601,13 +2601,13 @@
         <v>888868</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2675,13 @@
         <v>226650</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>516</v>
@@ -2690,13 +2690,13 @@
         <v>553717</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>717</v>
@@ -2705,13 +2705,13 @@
         <v>780367</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>3193132</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2778</v>
@@ -2837,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F2B098-763D-4ED8-BB46-A99CA532669F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B03AC13-E01A-4377-B434-A82AA6FA96CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,10 +2994,10 @@
         <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3012,13 @@
         <v>671114</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>664</v>
@@ -3027,13 +3027,13 @@
         <v>739828</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1341</v>
@@ -3042,13 +3042,13 @@
         <v>1410942</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3119,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>227</v>
@@ -3131,13 +3131,13 @@
         <v>247847</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -3146,13 +3146,13 @@
         <v>354837</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,10 +3170,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>1681</v>
@@ -3182,13 +3182,13 @@
         <v>1740453</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3532</v>
@@ -3197,13 +3197,13 @@
         <v>3709848</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>21421</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3286,13 +3286,13 @@
         <v>33248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3301,13 +3301,13 @@
         <v>54669</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3322,13 @@
         <v>525465</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3337,13 +3337,13 @@
         <v>515892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -3352,13 +3352,13 @@
         <v>1041357</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3426,13 @@
         <v>211645</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>484</v>
@@ -3441,13 +3441,13 @@
         <v>535926</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -3456,13 +3456,13 @@
         <v>747571</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3477,13 @@
         <v>3165973</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2842</v>
@@ -3492,13 +3492,13 @@
         <v>2996174</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5852</v>
@@ -3507,13 +3507,13 @@
         <v>6162147</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E833C1DA-B5F1-4641-9E3B-248046ECDF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44879250-6586-4B56-8819-4DA81649D5BB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3712,13 @@
         <v>100694</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>499</v>
@@ -3727,13 +3727,13 @@
         <v>293065</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>636</v>
@@ -3742,13 +3742,13 @@
         <v>393758</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>440940</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>928</v>
@@ -3778,13 +3778,13 @@
         <v>542888</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1482</v>
@@ -3793,13 +3793,13 @@
         <v>983828</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3867,13 @@
         <v>158907</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>478</v>
@@ -3882,13 +3882,13 @@
         <v>308778</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>652</v>
@@ -3897,13 +3897,13 @@
         <v>467685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,28 +3918,28 @@
         <v>2003115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>2443</v>
       </c>
       <c r="I8" s="7">
-        <v>1940742</v>
+        <v>1940743</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>4261</v>
@@ -3948,13 +3948,13 @@
         <v>3943858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,7 +3981,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4022,13 +4022,13 @@
         <v>40810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4037,13 +4037,13 @@
         <v>63915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4052,13 +4052,13 @@
         <v>104725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4073,13 @@
         <v>632229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4088,13 +4088,13 @@
         <v>649971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -4103,13 +4103,13 @@
         <v>1282201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4177,13 @@
         <v>300411</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1075</v>
@@ -4192,13 +4192,13 @@
         <v>665757</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
@@ -4207,13 +4207,13 @@
         <v>966168</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,16 +4225,16 @@
         <v>3006</v>
       </c>
       <c r="D14" s="7">
-        <v>3076284</v>
+        <v>3076283</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>4277</v>
@@ -4243,10 +4243,10 @@
         <v>3133603</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>291</v>
@@ -4255,7 +4255,7 @@
         <v>7283</v>
       </c>
       <c r="N14" s="7">
-        <v>6209887</v>
+        <v>6209886</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>292</v>
@@ -4276,7 +4276,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4306,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BB1F06-1A0B-42E4-B0B5-66D2295468D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A2A9AE-7A07-41D4-8B54-E977DF351C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3EB77DB-8350-403D-A807-41F90DEA22AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76687521-3BDE-46C8-81B6-F30032EF3E28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,741 +77,735 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
     <t>88,45%</t>
   </si>
   <si>
@@ -830,9 +824,6 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
     <t>10,96%</t>
   </si>
   <si>
@@ -858,9 +849,6 @@
   </si>
   <si>
     <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
   </si>
   <si>
     <t>92,45%</t>
@@ -1335,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42EEBD-2600-4B08-9FD9-D8B9B8DD74FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72306FCA-3E07-49CD-B949-7AC87A21C815}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,7 +1650,7 @@
         <v>1600</v>
       </c>
       <c r="D8" s="7">
-        <v>1643589</v>
+        <v>1643590</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1713,7 +1701,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1960,7 @@
         <v>3051</v>
       </c>
       <c r="D14" s="7">
-        <v>3115519</v>
+        <v>3115518</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2023,7 +2011,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8427A-E855-46A2-856C-EACFB6189F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155D5A0-F771-4AD8-A6CB-0572AFFB6077}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,7 +2204,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>309</v>
@@ -2225,13 +2213,13 @@
         <v>330571</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>406</v>
@@ -2240,13 +2228,13 @@
         <v>439231</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,10 +2252,10 @@
         <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>938</v>
@@ -2276,13 +2264,13 @@
         <v>1007225</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1749</v>
@@ -2291,13 +2279,13 @@
         <v>1873209</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2353,13 @@
         <v>94650</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -2380,13 +2368,13 @@
         <v>195542</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -2395,13 +2383,13 @@
         <v>290192</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2404,13 @@
         <v>1869307</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1453</v>
@@ -2431,13 +2419,13 @@
         <v>1562261</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3222</v>
@@ -2446,13 +2434,13 @@
         <v>3431568</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2508,13 @@
         <v>23339</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -2535,13 +2523,13 @@
         <v>27604</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2550,13 +2538,13 @@
         <v>50944</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2559,13 @@
         <v>457842</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2586,13 +2574,13 @@
         <v>431027</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -2601,13 +2589,13 @@
         <v>888868</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B03AC13-E01A-4377-B434-A82AA6FA96CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA89E1F2-7BF9-4043-B323-2998BE2B73EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,10 +2982,10 @@
         <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3000,13 @@
         <v>671114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>664</v>
@@ -3027,13 +3015,13 @@
         <v>739828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1341</v>
@@ -3042,13 +3030,13 @@
         <v>1410942</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3107,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>227</v>
@@ -3131,13 +3119,13 @@
         <v>247847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -3146,13 +3134,13 @@
         <v>354837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3158,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>183</v>
@@ -3271,13 +3259,13 @@
         <v>21421</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3286,10 +3274,10 @@
         <v>33248</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>194</v>
@@ -3307,7 +3295,7 @@
         <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3310,13 @@
         <v>525465</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3337,13 +3325,13 @@
         <v>515892</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -3352,13 +3340,13 @@
         <v>1041357</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3414,13 @@
         <v>211645</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>484</v>
@@ -3441,13 +3429,13 @@
         <v>535926</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -3456,13 +3444,13 @@
         <v>747571</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3465,13 @@
         <v>3165973</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>2842</v>
@@ -3492,13 +3480,13 @@
         <v>2996174</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>5852</v>
@@ -3507,13 +3495,13 @@
         <v>6162147</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44879250-6586-4B56-8819-4DA81649D5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4310BFE-C9E5-4C87-AD70-FBF8835BB878}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3700,13 @@
         <v>100694</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>499</v>
@@ -3727,13 +3715,13 @@
         <v>293065</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>636</v>
@@ -3742,13 +3730,13 @@
         <v>393758</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3751,13 @@
         <v>440940</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>928</v>
@@ -3778,13 +3766,13 @@
         <v>542888</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>1482</v>
@@ -3793,13 +3781,13 @@
         <v>983828</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3855,13 @@
         <v>158907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>478</v>
@@ -3882,13 +3870,13 @@
         <v>308778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>652</v>
@@ -3897,13 +3885,13 @@
         <v>467685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3906,13 @@
         <v>2003115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2443</v>
@@ -3933,13 +3921,13 @@
         <v>1940743</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4261</v>
@@ -3948,13 +3936,13 @@
         <v>3943858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4010,13 @@
         <v>40810</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4037,13 +4025,13 @@
         <v>63915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4052,13 +4040,13 @@
         <v>104725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4061,13 @@
         <v>632229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4088,13 +4076,13 @@
         <v>649971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -4103,13 +4091,13 @@
         <v>1282201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4165,13 @@
         <v>300411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>1075</v>
@@ -4192,13 +4180,13 @@
         <v>665757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
@@ -4207,13 +4195,13 @@
         <v>966168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4216,13 @@
         <v>3076283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>4277</v>
@@ -4243,13 +4231,13 @@
         <v>3133603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>7283</v>
@@ -4258,13 +4246,13 @@
         <v>6209886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A2A9AE-7A07-41D4-8B54-E977DF351C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2987065-5F85-48D2-A7B6-1FFFE0B1EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76687521-3BDE-46C8-81B6-F30032EF3E28}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F511DA20-9838-485B-BCFE-35E78DE01B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>86,42%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,583 +140,595 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>35,06%</t>
@@ -725,31 +737,31 @@
     <t>32,34%</t>
   </si>
   <si>
-    <t>38,0%</t>
+    <t>37,79%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>62,0%</t>
+    <t>62,21%</t>
   </si>
   <si>
     <t>67,66%</t>
@@ -758,112 +770,118 @@
     <t>71,42%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>93,75%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>10,96%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>89,04%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>93,57%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,88%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>9,9%</t>
@@ -872,19 +890,16 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>91,1%</t>
@@ -893,25 +908,22 @@
     <t>90,1%</t>
   </si>
   <si>
-    <t>92,12%</t>
+    <t>92,03%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>84,45%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72306FCA-3E07-49CD-B949-7AC87A21C815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A92BA58-8B7E-4A27-8E02-68D0E43AEF1D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1650,7 +1662,7 @@
         <v>1600</v>
       </c>
       <c r="D8" s="7">
-        <v>1643590</v>
+        <v>1643589</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1701,7 +1713,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1960,7 +1972,7 @@
         <v>3051</v>
       </c>
       <c r="D14" s="7">
-        <v>3115518</v>
+        <v>3115519</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1990,7 +2002,7 @@
         <v>5981</v>
       </c>
       <c r="N14" s="7">
-        <v>6117909</v>
+        <v>6117908</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2011,7 +2023,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2053,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155D5A0-F771-4AD8-A6CB-0572AFFB6077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5DCE-4731-452D-AE13-7027835E5437}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2204,7 +2216,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>309</v>
@@ -2213,13 +2225,13 @@
         <v>330571</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>406</v>
@@ -2228,13 +2240,13 @@
         <v>439231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,10 +2264,10 @@
         <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>938</v>
@@ -2264,13 +2276,13 @@
         <v>1007225</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1749</v>
@@ -2279,13 +2291,13 @@
         <v>1873209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2365,13 @@
         <v>94650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -2368,13 +2380,13 @@
         <v>195542</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -2383,13 +2395,13 @@
         <v>290192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2416,13 @@
         <v>1869307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1453</v>
@@ -2419,13 +2431,13 @@
         <v>1562261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3222</v>
@@ -2434,13 +2446,13 @@
         <v>3431568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2520,13 @@
         <v>23339</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -2523,13 +2535,13 @@
         <v>27604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2538,13 +2550,13 @@
         <v>50944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2571,13 @@
         <v>457842</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2574,13 +2586,13 @@
         <v>431027</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -2589,13 +2601,13 @@
         <v>888868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2675,13 @@
         <v>226650</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>516</v>
@@ -2678,13 +2690,13 @@
         <v>553717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>717</v>
@@ -2693,13 +2705,13 @@
         <v>780367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2726,13 @@
         <v>3193132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2778</v>
@@ -2825,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA89E1F2-7BF9-4043-B323-2998BE2B73EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DA789C-0FD9-45A4-BE8B-48C4BE610DC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,7 +3122,7 @@
         <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>227</v>
@@ -3119,13 +3131,13 @@
         <v>247847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -3134,13 +3146,13 @@
         <v>354837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,10 +3170,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1681</v>
@@ -3170,13 +3182,13 @@
         <v>1740453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3532</v>
@@ -3185,13 +3197,13 @@
         <v>3709848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3271,13 @@
         <v>21421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3274,13 +3286,13 @@
         <v>33248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3289,13 +3301,13 @@
         <v>54669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3322,13 @@
         <v>525465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3325,13 +3337,13 @@
         <v>515892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -3340,13 +3352,13 @@
         <v>1041357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3426,13 @@
         <v>211645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>484</v>
@@ -3429,13 +3441,13 @@
         <v>535926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -3444,13 +3456,13 @@
         <v>747571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3477,13 @@
         <v>3165973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2842</v>
@@ -3480,13 +3492,13 @@
         <v>2996174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5852</v>
@@ -3495,13 +3507,13 @@
         <v>6162147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4310BFE-C9E5-4C87-AD70-FBF8835BB878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E75D7-E1F9-4D6F-85C5-23427037A9DC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3712,13 @@
         <v>100694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>499</v>
@@ -3715,13 +3727,13 @@
         <v>293065</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>636</v>
@@ -3730,13 +3742,13 @@
         <v>393758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3763,13 @@
         <v>440940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>928</v>
@@ -3766,13 +3778,13 @@
         <v>542888</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1482</v>
@@ -3781,13 +3793,13 @@
         <v>983828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3867,13 @@
         <v>158907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>478</v>
@@ -3870,13 +3882,13 @@
         <v>308778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>652</v>
@@ -3885,13 +3897,13 @@
         <v>467685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,28 +3918,28 @@
         <v>2003115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2443</v>
       </c>
       <c r="I8" s="7">
-        <v>1940743</v>
+        <v>1940742</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4261</v>
@@ -3936,13 +3948,13 @@
         <v>3943858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3981,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4010,13 +4022,13 @@
         <v>40810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4025,13 +4037,13 @@
         <v>63915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4040,13 +4052,13 @@
         <v>104725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4073,13 @@
         <v>632229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4076,13 +4088,13 @@
         <v>649971</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -4091,13 +4103,13 @@
         <v>1282201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4177,13 @@
         <v>300411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1075</v>
@@ -4180,13 +4192,13 @@
         <v>665757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
@@ -4195,13 +4207,13 @@
         <v>966168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,16 +4225,16 @@
         <v>3006</v>
       </c>
       <c r="D14" s="7">
-        <v>3076283</v>
+        <v>3076284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>4277</v>
@@ -4231,28 +4243,28 @@
         <v>3133603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>7283</v>
       </c>
       <c r="N14" s="7">
-        <v>6209886</v>
+        <v>6209887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4276,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4306,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2987065-5F85-48D2-A7B6-1FFFE0B1EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E2557D-6607-418A-90A9-C024B81F6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F511DA20-9838-485B-BCFE-35E78DE01B5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{45F903A3-A947-46ED-B352-02BC25C28E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -722,208 +722,214 @@
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A92BA58-8B7E-4A27-8E02-68D0E43AEF1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7578487B-4638-4B95-A8D7-A28FC5CCED55}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1492,7 @@
         <v>317</v>
       </c>
       <c r="N4" s="7">
-        <v>318614</v>
+        <v>318613</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1588,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1662,7 +1668,7 @@
         <v>1600</v>
       </c>
       <c r="D8" s="7">
-        <v>1643589</v>
+        <v>1643590</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1713,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1978,7 @@
         <v>3051</v>
       </c>
       <c r="D14" s="7">
-        <v>3115519</v>
+        <v>3115518</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1987,7 +1993,7 @@
         <v>2930</v>
       </c>
       <c r="I14" s="7">
-        <v>3002391</v>
+        <v>3002390</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2002,7 +2008,7 @@
         <v>5981</v>
       </c>
       <c r="N14" s="7">
-        <v>6117908</v>
+        <v>6117909</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2023,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2053,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5DCE-4731-452D-AE13-7027835E5437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA1C514-F559-424C-BDB3-EC30E957911C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,7 +2279,7 @@
         <v>938</v>
       </c>
       <c r="I5" s="7">
-        <v>1007225</v>
+        <v>1007226</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2324,7 +2330,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2598,7 +2604,7 @@
         <v>808</v>
       </c>
       <c r="N11" s="7">
-        <v>888868</v>
+        <v>888869</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2649,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DA789C-0FD9-45A4-BE8B-48C4BE610DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE7BE1-925F-402B-AECF-ADE7D834BFFA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3355,7 @@
         <v>979</v>
       </c>
       <c r="N11" s="7">
-        <v>1041357</v>
+        <v>1041358</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>205</v>
@@ -3400,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E75D7-E1F9-4D6F-85C5-23427037A9DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA41E56C-B9F8-4B0A-B31A-6CF2ECAC22D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3715,7 @@
         <v>137</v>
       </c>
       <c r="D4" s="7">
-        <v>100694</v>
+        <v>93817</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3724,7 +3730,7 @@
         <v>499</v>
       </c>
       <c r="I4" s="7">
-        <v>293065</v>
+        <v>261106</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3739,7 +3745,7 @@
         <v>636</v>
       </c>
       <c r="N4" s="7">
-        <v>393758</v>
+        <v>354923</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3760,7 +3766,7 @@
         <v>554</v>
       </c>
       <c r="D5" s="7">
-        <v>440940</v>
+        <v>421121</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3775,7 +3781,7 @@
         <v>928</v>
       </c>
       <c r="I5" s="7">
-        <v>542888</v>
+        <v>494402</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3790,7 +3796,7 @@
         <v>1482</v>
       </c>
       <c r="N5" s="7">
-        <v>983828</v>
+        <v>915523</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3811,7 +3817,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3832,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3847,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,7 +3870,7 @@
         <v>174</v>
       </c>
       <c r="D7" s="7">
-        <v>158907</v>
+        <v>149457</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3879,7 +3885,7 @@
         <v>478</v>
       </c>
       <c r="I7" s="7">
-        <v>308778</v>
+        <v>281750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3894,16 +3900,16 @@
         <v>652</v>
       </c>
       <c r="N7" s="7">
-        <v>467685</v>
+        <v>431208</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3921,46 @@
         <v>1818</v>
       </c>
       <c r="D8" s="7">
-        <v>2003115</v>
+        <v>2140870</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2443</v>
       </c>
       <c r="I8" s="7">
-        <v>1940742</v>
+        <v>1956073</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4261</v>
       </c>
       <c r="N8" s="7">
-        <v>3943858</v>
+        <v>4096942</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3972,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3987,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +4002,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,46 +4025,46 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>40810</v>
+        <v>39327</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>63915</v>
+        <v>58597</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>104725</v>
+        <v>97924</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,43 +4076,43 @@
         <v>634</v>
       </c>
       <c r="D11" s="7">
-        <v>632229</v>
+        <v>607296</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
       </c>
       <c r="I11" s="7">
-        <v>649971</v>
+        <v>601866</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
       </c>
       <c r="N11" s="7">
-        <v>1282201</v>
+        <v>1209162</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>278</v>
@@ -4121,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4142,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4157,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,7 +4180,7 @@
         <v>358</v>
       </c>
       <c r="D13" s="7">
-        <v>300411</v>
+        <v>282602</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>279</v>
@@ -4189,7 +4195,7 @@
         <v>1075</v>
       </c>
       <c r="I13" s="7">
-        <v>665757</v>
+        <v>601452</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>282</v>
@@ -4198,22 +4204,22 @@
         <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
       </c>
       <c r="N13" s="7">
-        <v>966168</v>
+        <v>884054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4231,46 @@
         <v>3006</v>
       </c>
       <c r="D14" s="7">
-        <v>3076284</v>
+        <v>3169287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4277</v>
       </c>
       <c r="I14" s="7">
-        <v>3133603</v>
+        <v>3052342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7283</v>
       </c>
       <c r="N14" s="7">
-        <v>6209887</v>
+        <v>6221629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4282,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4297,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4312,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
